--- a/sh/src/main/resources/templates/transaction_statement_template.xlsx
+++ b/sh/src/main/resources/templates/transaction_statement_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donguk/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donguk/sdw/sdw/erp/sh/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2506C3BC-DBD8-B34B-8341-A77F4C29DCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BE2DD8-950B-4F48-8EA6-B4F549539337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{09E15D83-B0B0-864D-A927-96D3B98B6D56}"/>
   </bookViews>
@@ -335,65 +335,65 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,229 +734,230 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.42578125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="30" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="12" customWidth="1"/>
-    <col min="5" max="6" width="6.85546875" style="12" customWidth="1"/>
-    <col min="7" max="8" width="10.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="12" customWidth="1"/>
-    <col min="12" max="16384" width="7.42578125" style="12"/>
+    <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="6" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="7.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" ht="13">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="13">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="15" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="8" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="11"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="16"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="11"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="16"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="11"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="11"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -991,11 +992,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="4"/>
@@ -1004,11 +1005,11 @@
       <c r="J14" s="4"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
@@ -1017,11 +1018,11 @@
       <c r="J15" s="4"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="16" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="4"/>
@@ -1030,11 +1031,11 @@
       <c r="J16" s="4"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="17" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="4"/>
@@ -1043,11 +1044,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="18" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="4"/>
@@ -1056,11 +1057,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="19" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="4"/>
@@ -1069,11 +1070,11 @@
       <c r="J19" s="4"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="20" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="4"/>
@@ -1082,11 +1083,11 @@
       <c r="J20" s="4"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="4"/>
@@ -1095,11 +1096,11 @@
       <c r="J21" s="4"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="22" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="4"/>
@@ -1108,11 +1109,11 @@
       <c r="J22" s="4"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="4"/>
@@ -1121,14 +1122,14 @@
       <c r="J23" s="4"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="4">
         <f>SUM(F14:F23)</f>
         <v>0</v>
@@ -1149,63 +1150,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="23"/>
-    </row>
-    <row r="25" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="9" t="s">
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
+      <c r="H25" s="22"/>
+      <c r="I25" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="6">
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23">
         <f>J24</f>
         <v>0</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1218,7 +1219,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" s="14" customFormat="1" ht="18" customHeight="1">
+    <row r="29" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1232,221 +1233,221 @@
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:11" ht="26">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" ht="18" customHeight="1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="15" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" ht="18" customHeight="1">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="15" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="18" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="15" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" ht="18" customHeight="1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="8" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1">
-      <c r="A37" s="11"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="8"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
       <c r="G37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
     </row>
     <row r="38" spans="1:11" ht="18" customHeight="1">
-      <c r="A38" s="11"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="8"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="18"/>
       <c r="G38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="19"/>
+      <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" ht="18" customHeight="1">
-      <c r="A39" s="11"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="19"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="8"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="19"/>
+      <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" ht="18" customHeight="1">
-      <c r="A40" s="11"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
     </row>
     <row r="41" spans="1:11" ht="18" customHeight="1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
     </row>
     <row r="42" spans="1:11" ht="18" customHeight="1">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
     </row>
     <row r="43" spans="1:11" ht="18" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -1485,9 +1486,9 @@
     </row>
     <row r="44" spans="1:11" ht="18" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="3"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="4"/>
@@ -1498,9 +1499,9 @@
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="4"/>
@@ -1511,9 +1512,9 @@
     </row>
     <row r="46" spans="1:11" ht="18" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="4"/>
@@ -1524,9 +1525,9 @@
     </row>
     <row r="47" spans="1:11" ht="18" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="4"/>
@@ -1537,9 +1538,9 @@
     </row>
     <row r="48" spans="1:11" ht="18" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="4"/>
@@ -1550,9 +1551,9 @@
     </row>
     <row r="49" spans="1:11" ht="18" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="3"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="4"/>
@@ -1563,9 +1564,9 @@
     </row>
     <row r="50" spans="1:11" ht="18" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="3"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="4"/>
@@ -1576,9 +1577,9 @@
     </row>
     <row r="51" spans="1:11" ht="18" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="4"/>
@@ -1589,9 +1590,9 @@
     </row>
     <row r="52" spans="1:11" ht="18" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="4"/>
@@ -1602,9 +1603,9 @@
     </row>
     <row r="53" spans="1:11" ht="18" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="4"/>
@@ -1614,13 +1615,13 @@
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" ht="18" customHeight="1">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
       <c r="F54" s="4">
         <f>SUM(F44:F53)</f>
         <v>0</v>
@@ -1641,272 +1642,259 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K54" s="23"/>
+      <c r="K54" s="13"/>
     </row>
     <row r="55" spans="1:11" ht="18" customHeight="1">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9" t="s">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9" t="s">
+      <c r="F55" s="22"/>
+      <c r="G55" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9" t="s">
+      <c r="H55" s="22"/>
+      <c r="I55" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
     </row>
     <row r="56" spans="1:11" ht="18" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="6">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23">
         <f>J54</f>
         <v>0</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
     </row>
     <row r="57" spans="1:11" ht="18" customHeight="1">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A30:K30"/>
     <mergeCell ref="A31:K31"/>
@@ -1923,19 +1911,32 @@
     <mergeCell ref="H40:K41"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A55:B56"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sh/src/main/resources/templates/transaction_statement_template.xlsx
+++ b/sh/src/main/resources/templates/transaction_statement_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donguk/sdw/sdw/erp/sh/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BE2DD8-950B-4F48-8EA6-B4F549539337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99AFAEE-311E-A44F-96CC-989593DAF20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{09E15D83-B0B0-864D-A927-96D3B98B6D56}"/>
   </bookViews>
@@ -39,39 +39,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>거래명세표</t>
   </si>
   <si>
     <t xml:space="preserve">결제계좌 : </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>페이지번호 :</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>전체공지 :</t>
   </si>
   <si>
     <t xml:space="preserve">주문번호 : </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>출력일자 :</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>공급자</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>등록번호</t>
   </si>
   <si>
     <t>공급받는자</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>상호</t>
@@ -87,7 +87,7 @@
   </si>
   <si>
     <t>업종</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>주소</t>
@@ -97,14 +97,14 @@
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>순번</t>
   </si>
   <si>
     <t>면/과세</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>품명</t>
@@ -153,13 +153,38 @@
   </si>
   <si>
     <t>원산지 표시의무 이행 통보: 매입한 물품은 최종 판매 단계(제3자 양도시 동일)까지 한글 원산지 표시를 이행통보 하여야 함</t>
+  </si>
+  <si>
+    <r>
+      <t>거래명세표</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(공급자보관용)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - - -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,13 +192,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="굴림"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -197,13 +215,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="굴림"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="굴림"/>
       <family val="2"/>
@@ -219,6 +230,54 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="굴림"/>
       <family val="2"/>
       <charset val="129"/>
@@ -250,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -310,89 +369,784 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.42578125" defaultRowHeight="14"/>
@@ -754,19 +1508,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" s="8" customFormat="1" ht="13">
       <c r="A2" s="7"/>
@@ -781,181 +1535,181 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="9" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="9" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="2" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
     </row>
     <row r="8" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="18"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="16"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="22" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="2" t="s">
@@ -1123,13 +1877,13 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="A24" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="4">
         <f>SUM(F14:F23)</f>
         <v>0</v>
@@ -1150,61 +1904,61 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="13"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22" t="s">
+      <c r="D25" s="55"/>
+      <c r="E25" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22" t="s">
+      <c r="F25" s="55"/>
+      <c r="G25" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22" t="s">
+      <c r="H25" s="55"/>
+      <c r="I25" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
     </row>
     <row r="26" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56">
         <f>J24</f>
         <v>0</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
     </row>
     <row r="27" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
     </row>
     <row r="28" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="5"/>
@@ -1220,45 +1974,47 @@
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="A29" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
     </row>
     <row r="31" spans="1:11" ht="26">
-      <c r="A31" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="A31" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="7"/>
@@ -1274,614 +2030,614 @@
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" ht="18" customHeight="1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="9" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="18" customHeight="1">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="9" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" ht="18" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="9" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" ht="18" customHeight="1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="70"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="61"/>
+      <c r="B37" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="2" t="s">
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="70"/>
     </row>
     <row r="38" spans="1:11" ht="18" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="61"/>
+      <c r="B38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="22"/>
+      <c r="D38" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="2" t="s">
+      <c r="E38" s="25"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="1" t="s">
+      <c r="H38" s="71"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="12"/>
+      <c r="K38" s="30"/>
     </row>
     <row r="39" spans="1:11" ht="18" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="1" t="s">
+      <c r="C39" s="23"/>
+      <c r="D39" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="2" t="s">
+      <c r="E39" s="25"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="1" t="s">
+      <c r="H39" s="71"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="12"/>
+      <c r="K39" s="28"/>
     </row>
     <row r="40" spans="1:11" ht="18" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="62"/>
+      <c r="B40" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="22" t="s">
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="79"/>
     </row>
     <row r="41" spans="1:11" ht="18" customHeight="1">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="82"/>
     </row>
     <row r="42" spans="1:11" ht="18" customHeight="1">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="92"/>
     </row>
     <row r="43" spans="1:11" ht="18" customHeight="1">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="18" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="3"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="42"/>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="3"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="43"/>
     </row>
     <row r="46" spans="1:11" ht="18" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="3"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="42"/>
     </row>
     <row r="47" spans="1:11" ht="18" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="3"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="42"/>
     </row>
     <row r="48" spans="1:11" ht="18" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="3"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="42"/>
     </row>
     <row r="49" spans="1:11" ht="18" customHeight="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="3"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="42"/>
     </row>
     <row r="50" spans="1:11" ht="18" customHeight="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="3"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="42"/>
     </row>
     <row r="51" spans="1:11" ht="18" customHeight="1">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="3"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="42"/>
     </row>
     <row r="52" spans="1:11" ht="18" customHeight="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="3"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="42"/>
     </row>
     <row r="53" spans="1:11" ht="18" customHeight="1">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="3"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="42"/>
     </row>
     <row r="54" spans="1:11" ht="18" customHeight="1">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="4">
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="40">
         <f>SUM(F44:F53)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="40">
         <f t="shared" ref="G54:J54" si="1">SUM(G44:G53)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K54" s="13"/>
+      <c r="K54" s="44"/>
     </row>
     <row r="55" spans="1:11" ht="18" customHeight="1">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22" t="s">
+      <c r="B55" s="99"/>
+      <c r="C55" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22" t="s">
+      <c r="D55" s="103"/>
+      <c r="E55" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22" t="s">
+      <c r="F55" s="103"/>
+      <c r="G55" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22" t="s">
+      <c r="H55" s="103"/>
+      <c r="I55" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="103"/>
     </row>
     <row r="56" spans="1:11" ht="18" customHeight="1">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23">
+      <c r="A56" s="100"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="106">
         <f>J54</f>
         <v>0</v>
       </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="91"/>
+      <c r="K56" s="92"/>
     </row>
     <row r="57" spans="1:11" ht="18" customHeight="1">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="A57:K57"/>
@@ -1911,7 +2667,6 @@
     <mergeCell ref="H40:K41"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="C26:D26"/>
@@ -1923,6 +2678,7 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A29:K29"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="C6:E6"/>
@@ -1937,10 +2693,11 @@
     <mergeCell ref="H10:K11"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="58" max="16383" man="1"/>
   </rowBreaks>
